--- a/biology/Zoologie/Afarsia/Afarsia.xlsx
+++ b/biology/Zoologie/Afarsia/Afarsia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afarsia est un genre asiatique de lépidoptères de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,12 +523,14 @@
           <t>Systématique et phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Afarsia a été proposé par Korb &amp; Bolshakov en 2011[1] pour remplacer le nom Farsia Zhdanko, 1992, qui était invalide car préoccupé par Farsia Amsel, 1961.
-L'espèce type de Farsia Zhdanko, 1992 (puis d’Afarsia Korb &amp; Bolshakov, 2011) est Lycaena hyrcana Lederer, 1869 (un nom invalide dont le synonyme valide est Cupido morgiana Kirby, 1871)[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Afarsia a été proposé par Korb &amp; Bolshakov en 2011 pour remplacer le nom Farsia Zhdanko, 1992, qui était invalide car préoccupé par Farsia Amsel, 1961.
+L'espèce type de Farsia Zhdanko, 1992 (puis d’Afarsia Korb &amp; Bolshakov, 2011) est Lycaena hyrcana Lederer, 1869 (un nom invalide dont le synonyme valide est Cupido morgiana Kirby, 1871),.
 Le genre Afarsia est classé dans la famille des Lycaenidae, la sous-famille des Polyommatinae et la tribu des Polyommatini.
-Il a été synonymisé avec Albulina par certains auteurs, mais des études sur la phylogénétique moléculaire des Polyommatini ont conduit à le traiter comme un genre indépendant, qui apparaît comme le groupe frère du genre Kretania sensu lato, avec un faible support[3]. 
+Il a été synonymisé avec Albulina par certains auteurs, mais des études sur la phylogénétique moléculaire des Polyommatini ont conduit à le traiter comme un genre indépendant, qui apparaît comme le groupe frère du genre Kretania sensu lato, avec un faible support. 
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D'après Funet[2] et Talavera et al.[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après Funet et Talavera et al. :
 Afarsia hanna (Evans, 1932) — Tadjikistan, Pakistan, Afghanistan.
 Afarsia ashretha (Evans, 1925) — Tadjikistan, Pakistan.
 Afarsia neoiris (Tshikolovets, 1997) — Tadjikistan
